--- a/biology/Botanique/Millettia_atropurpurea/Millettia_atropurpurea.xlsx
+++ b/biology/Botanique/Millettia_atropurpurea/Millettia_atropurpurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callerya atropurpurea est une espèce d'arbre de la famille des Fabaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Millettia atropurpurea[2]
-Pongamia atropurpurea[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Millettia atropurpurea
+Pongamia atropurpurea
 Padbruggea atropurpurea.
 Whitfordiodendron atropurpurea</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>fleurs: pourpres en inflorescence dense
 graines: longues de 5 centimètres</t>
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Asie du Sud Est, depuis la Birmanie, jusqu'aux Philippines, Java, Sumatra.
 </t>
